--- a/data/pca/factorExposure/factorExposure_2014-10-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +738,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.004473816773293026</v>
+        <v>0.01698752000010933</v>
       </c>
       <c r="C2">
-        <v>0.1072512506813134</v>
+        <v>0.07063866966071222</v>
       </c>
       <c r="D2">
-        <v>-0.006843039903611172</v>
+        <v>0.02836808943091952</v>
       </c>
       <c r="E2">
-        <v>-0.2307250602679667</v>
+        <v>-0.09760181617291254</v>
       </c>
       <c r="F2">
-        <v>-0.08124522693011821</v>
+        <v>-0.1257124470433357</v>
       </c>
       <c r="G2">
-        <v>0.05951108215526726</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.004146451323547573</v>
+      </c>
+      <c r="H2">
+        <v>0.05752853559000956</v>
+      </c>
+      <c r="I2">
+        <v>-0.01101802644898679</v>
+      </c>
+      <c r="J2">
+        <v>-0.09857548492828419</v>
+      </c>
+      <c r="K2">
+        <v>0.1620516681587506</v>
+      </c>
+      <c r="L2">
+        <v>0.1270754450795729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +814,63 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.01408424131102535</v>
+        <v>0.01600374979347681</v>
       </c>
       <c r="C4">
-        <v>0.1671575508570387</v>
+        <v>0.1433900271627452</v>
       </c>
       <c r="D4">
-        <v>0.02703442001621113</v>
+        <v>0.06596883950419932</v>
       </c>
       <c r="E4">
-        <v>-0.1033550755258021</v>
+        <v>0.0156672426132228</v>
       </c>
       <c r="F4">
-        <v>0.07187076347675929</v>
+        <v>-0.08428602849128912</v>
       </c>
       <c r="G4">
-        <v>0.02770455677400857</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.01313071885394703</v>
+      </c>
+      <c r="H4">
+        <v>0.1051539543469946</v>
+      </c>
+      <c r="I4">
+        <v>-0.02691288555771044</v>
+      </c>
+      <c r="J4">
+        <v>-0.1882567432559901</v>
+      </c>
+      <c r="K4">
+        <v>0.06574653383097202</v>
+      </c>
+      <c r="L4">
+        <v>0.03503735301524173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +890,443 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.02466985568090675</v>
+        <v>0.0387138121344647</v>
       </c>
       <c r="C6">
-        <v>0.08484042569198506</v>
+        <v>0.08882414552083676</v>
       </c>
       <c r="D6">
-        <v>0.05319099345948083</v>
+        <v>0.02965557173996308</v>
       </c>
       <c r="E6">
-        <v>-0.06139324713502341</v>
+        <v>-0.04661083230741998</v>
       </c>
       <c r="F6">
-        <v>-0.009768992695981261</v>
+        <v>-0.01488892275279315</v>
       </c>
       <c r="G6">
-        <v>-0.0131395421745033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.04251032975378264</v>
+      </c>
+      <c r="H6">
+        <v>0.02714237851272145</v>
+      </c>
+      <c r="I6">
+        <v>0.07686719188146439</v>
+      </c>
+      <c r="J6">
+        <v>0.01953638235721431</v>
+      </c>
+      <c r="K6">
+        <v>0.09677501402297174</v>
+      </c>
+      <c r="L6">
+        <v>-0.02100746850909273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.0006163559358585031</v>
+        <v>0.01651188593823729</v>
       </c>
       <c r="C7">
-        <v>0.06526426900403874</v>
+        <v>0.07456580021556079</v>
       </c>
       <c r="D7">
-        <v>0.03102106083945804</v>
+        <v>0.02802528953672294</v>
       </c>
       <c r="E7">
-        <v>-0.04196969774030306</v>
+        <v>0.01605402575953251</v>
       </c>
       <c r="F7">
-        <v>0.04147282329383164</v>
+        <v>-0.004892739328007521</v>
       </c>
       <c r="G7">
-        <v>-0.009596164603800226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.04254897542976543</v>
+      </c>
+      <c r="H7">
+        <v>0.1011429644624025</v>
+      </c>
+      <c r="I7">
+        <v>0.009767251447370394</v>
+      </c>
+      <c r="J7">
+        <v>-0.04039219294315229</v>
+      </c>
+      <c r="K7">
+        <v>0.02707329258460064</v>
+      </c>
+      <c r="L7">
+        <v>0.02290081932431271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.01027391611750294</v>
+        <v>-0.001394203616237433</v>
       </c>
       <c r="C8">
-        <v>0.06943227201478656</v>
+        <v>0.06229668583415175</v>
       </c>
       <c r="D8">
-        <v>0.02696358219503561</v>
+        <v>0.04367749429425352</v>
       </c>
       <c r="E8">
-        <v>-0.09531389774596764</v>
+        <v>-0.02120600755121517</v>
       </c>
       <c r="F8">
-        <v>0.02308318500898942</v>
+        <v>-0.06000931650296745</v>
       </c>
       <c r="G8">
-        <v>0.03068027385045432</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.01183806212765021</v>
+      </c>
+      <c r="H8">
+        <v>0.0564514218869336</v>
+      </c>
+      <c r="I8">
+        <v>0.003584896914713644</v>
+      </c>
+      <c r="J8">
+        <v>-0.01051104767884982</v>
+      </c>
+      <c r="K8">
+        <v>0.001941365646910497</v>
+      </c>
+      <c r="L8">
+        <v>0.005028489596954711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.005189797998478019</v>
+        <v>0.01126321462152309</v>
       </c>
       <c r="C9">
-        <v>0.1302629279670848</v>
+        <v>0.1061402607583726</v>
       </c>
       <c r="D9">
-        <v>0.03699254351539</v>
+        <v>0.0444301740089415</v>
       </c>
       <c r="E9">
-        <v>-0.04737639721525583</v>
+        <v>-0.002908035229696154</v>
       </c>
       <c r="F9">
-        <v>0.02715991172148949</v>
+        <v>-0.03470482265922533</v>
       </c>
       <c r="G9">
-        <v>-0.0250196955196001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.001205978814879842</v>
+      </c>
+      <c r="H9">
+        <v>0.0928728498127426</v>
+      </c>
+      <c r="I9">
+        <v>0.01378488346412449</v>
+      </c>
+      <c r="J9">
+        <v>-0.1050239738340373</v>
+      </c>
+      <c r="K9">
+        <v>0.01852484461653888</v>
+      </c>
+      <c r="L9">
+        <v>-0.003358228858472088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.2734631345192117</v>
+        <v>0.2482730234334158</v>
       </c>
       <c r="C10">
-        <v>-0.07853174951052436</v>
+        <v>-0.08916278484886328</v>
       </c>
       <c r="D10">
-        <v>-0.02301955562522874</v>
+        <v>-0.003769847023597523</v>
       </c>
       <c r="E10">
-        <v>0.0330476145664195</v>
+        <v>-0.0129277482969127</v>
       </c>
       <c r="F10">
-        <v>0.006289099135837826</v>
+        <v>0.01563610615816349</v>
       </c>
       <c r="G10">
-        <v>-0.02042449027145758</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01342578277787395</v>
+      </c>
+      <c r="H10">
+        <v>0.0350272473831109</v>
+      </c>
+      <c r="I10">
+        <v>-0.1557284387713932</v>
+      </c>
+      <c r="J10">
+        <v>-0.03080779342074695</v>
+      </c>
+      <c r="K10">
+        <v>-0.1261313868495728</v>
+      </c>
+      <c r="L10">
+        <v>0.01718317037111567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.006206653586591897</v>
+        <v>0.01562650499776307</v>
       </c>
       <c r="C11">
-        <v>0.06823913982771283</v>
+        <v>0.08418755478042175</v>
       </c>
       <c r="D11">
-        <v>0.02602876987753673</v>
+        <v>0.03842532299257833</v>
       </c>
       <c r="E11">
-        <v>0.01239990515308196</v>
+        <v>0.009699645965196239</v>
       </c>
       <c r="F11">
-        <v>0.02536068276792001</v>
+        <v>0.01178313395386028</v>
       </c>
       <c r="G11">
-        <v>-0.04336549780823119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.009475957795706964</v>
+      </c>
+      <c r="H11">
+        <v>0.03140671150209019</v>
+      </c>
+      <c r="I11">
+        <v>0.02524855109133527</v>
+      </c>
+      <c r="J11">
+        <v>0.001629110674938042</v>
+      </c>
+      <c r="K11">
+        <v>-0.02154284852035573</v>
+      </c>
+      <c r="L11">
+        <v>-0.05735502201613245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.005379275774594689</v>
+        <v>0.01580367804688552</v>
       </c>
       <c r="C12">
-        <v>0.05719505250706113</v>
+        <v>0.06018029794446886</v>
       </c>
       <c r="D12">
-        <v>0.02973886945887915</v>
+        <v>0.02248179851042909</v>
       </c>
       <c r="E12">
-        <v>0.00905136899985666</v>
+        <v>-0.01428307196473955</v>
       </c>
       <c r="F12">
-        <v>-0.00514901945658819</v>
+        <v>0.02016281100231238</v>
       </c>
       <c r="G12">
-        <v>-0.0718856754557189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.02731166806117847</v>
+      </c>
+      <c r="H12">
+        <v>0.02970952995360474</v>
+      </c>
+      <c r="I12">
+        <v>0.01980261909545404</v>
+      </c>
+      <c r="J12">
+        <v>-0.00618912679654284</v>
+      </c>
+      <c r="K12">
+        <v>-0.01275659769440309</v>
+      </c>
+      <c r="L12">
+        <v>-0.05375341659652538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.0176318257020226</v>
+        <v>0.006194567456385882</v>
       </c>
       <c r="C13">
-        <v>0.1269129699696307</v>
+        <v>0.1204971864135922</v>
       </c>
       <c r="D13">
-        <v>0.0584010218025417</v>
+        <v>0.04366955113180259</v>
       </c>
       <c r="E13">
-        <v>-0.05690130396588904</v>
+        <v>-0.1443837833177974</v>
       </c>
       <c r="F13">
-        <v>0.01605579279681405</v>
+        <v>-0.06476721460427827</v>
       </c>
       <c r="G13">
-        <v>-0.1870414479084314</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.1179594383524654</v>
+      </c>
+      <c r="H13">
+        <v>0.1318127727075498</v>
+      </c>
+      <c r="I13">
+        <v>-0.2098600812962384</v>
+      </c>
+      <c r="J13">
+        <v>0.2207727820454202</v>
+      </c>
+      <c r="K13">
+        <v>-0.1033151850975971</v>
+      </c>
+      <c r="L13">
+        <v>-0.02329733141860555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.006837827951482865</v>
+        <v>0.01801406593210371</v>
       </c>
       <c r="C14">
-        <v>0.06698949336489851</v>
+        <v>0.07504694066962504</v>
       </c>
       <c r="D14">
-        <v>0.0300335602598363</v>
+        <v>0.0503516580172735</v>
       </c>
       <c r="E14">
-        <v>-0.04244114778074029</v>
+        <v>-0.04469565442999576</v>
       </c>
       <c r="F14">
-        <v>-0.009399172063371132</v>
+        <v>0.01677989455871072</v>
       </c>
       <c r="G14">
-        <v>-0.06423497893079069</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.07519541801723165</v>
+      </c>
+      <c r="H14">
+        <v>0.2084516322201468</v>
+      </c>
+      <c r="I14">
+        <v>0.04023189897828934</v>
+      </c>
+      <c r="J14">
+        <v>0.09212604899539716</v>
+      </c>
+      <c r="K14">
+        <v>-0.07110653303514151</v>
+      </c>
+      <c r="L14">
+        <v>0.1561347299622077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.005838384442751787</v>
+        <v>0.001538186753155338</v>
       </c>
       <c r="C15">
-        <v>0.1019927929772518</v>
+        <v>0.08076576358653383</v>
       </c>
       <c r="D15">
-        <v>0.04265926200043414</v>
+        <v>0.03587942475778996</v>
       </c>
       <c r="E15">
-        <v>-0.07185607704617517</v>
+        <v>-0.006362768510459281</v>
       </c>
       <c r="F15">
-        <v>0.02408134742663029</v>
+        <v>-0.02390112558563757</v>
       </c>
       <c r="G15">
-        <v>-0.0314622285668066</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.03162224028194246</v>
+      </c>
+      <c r="H15">
+        <v>0.09051858519109575</v>
+      </c>
+      <c r="I15">
+        <v>0.02834423221380777</v>
+      </c>
+      <c r="J15">
+        <v>0.02140836005216095</v>
+      </c>
+      <c r="K15">
+        <v>-0.05207069765656992</v>
+      </c>
+      <c r="L15">
+        <v>0.02762314512720513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.009144692278379532</v>
+        <v>0.01477890035980016</v>
       </c>
       <c r="C16">
-        <v>0.06345547091900923</v>
+        <v>0.06452144854196622</v>
       </c>
       <c r="D16">
-        <v>0.01801558277999366</v>
+        <v>0.02677420598224339</v>
       </c>
       <c r="E16">
-        <v>0.01031781620994253</v>
+        <v>0.003824381291682145</v>
       </c>
       <c r="F16">
-        <v>0.002193827886032758</v>
+        <v>0.009205497463900848</v>
       </c>
       <c r="G16">
-        <v>-0.03477960681957301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.008009781881098086</v>
+      </c>
+      <c r="H16">
+        <v>0.02381184756162259</v>
+      </c>
+      <c r="I16">
+        <v>0.02121656415329951</v>
+      </c>
+      <c r="J16">
+        <v>-0.006779011637683327</v>
+      </c>
+      <c r="K16">
+        <v>-0.007878699744018869</v>
+      </c>
+      <c r="L16">
+        <v>-0.03950207065621284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1346,25 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1384,25 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1422,291 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.01031521991159034</v>
+        <v>0.01261063276180037</v>
       </c>
       <c r="C20">
-        <v>0.089738247486922</v>
+        <v>0.08656335727853197</v>
       </c>
       <c r="D20">
-        <v>0.01912304814672725</v>
+        <v>0.02647577287422417</v>
       </c>
       <c r="E20">
-        <v>-0.01100087372214269</v>
+        <v>0.02609224481676605</v>
       </c>
       <c r="F20">
-        <v>0.06341008692922669</v>
+        <v>-0.001692198873635653</v>
       </c>
       <c r="G20">
-        <v>-0.08281722863983033</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.04038293315625886</v>
+      </c>
+      <c r="H20">
+        <v>0.07308019795704838</v>
+      </c>
+      <c r="I20">
+        <v>0.01900319080661486</v>
+      </c>
+      <c r="J20">
+        <v>-0.02317652898534912</v>
+      </c>
+      <c r="K20">
+        <v>0.00385415579245959</v>
+      </c>
+      <c r="L20">
+        <v>-0.006624268759874287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>-0.002041302129580571</v>
+        <v>0.01326159077471397</v>
       </c>
       <c r="C21">
-        <v>0.09496601434587262</v>
+        <v>0.07656442990659722</v>
       </c>
       <c r="D21">
-        <v>-0.02517004279219353</v>
+        <v>0.02468172563569123</v>
       </c>
       <c r="E21">
-        <v>-0.04949589847359984</v>
+        <v>-0.08735283302130092</v>
       </c>
       <c r="F21">
-        <v>-0.04358175815660202</v>
+        <v>0.01096236233737995</v>
       </c>
       <c r="G21">
-        <v>-0.05081963643503584</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.0144920279691534</v>
+      </c>
+      <c r="H21">
+        <v>0.1421229543885882</v>
+      </c>
+      <c r="I21">
+        <v>-0.0226061099204981</v>
+      </c>
+      <c r="J21">
+        <v>0.03464523606849316</v>
+      </c>
+      <c r="K21">
+        <v>-0.03139986920746005</v>
+      </c>
+      <c r="L21">
+        <v>-0.01403951770846011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.04076132710011012</v>
+        <v>0.003919259865708081</v>
       </c>
       <c r="C22">
-        <v>0.1889986210536539</v>
+        <v>0.1712238290210618</v>
       </c>
       <c r="D22">
-        <v>-0.0892382420820922</v>
+        <v>0.01701920580328465</v>
       </c>
       <c r="E22">
-        <v>-0.2853173544255935</v>
+        <v>-0.06153641522875299</v>
       </c>
       <c r="F22">
-        <v>0.1401076732399305</v>
+        <v>-0.5287999881388314</v>
       </c>
       <c r="G22">
-        <v>0.1968990747936971</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.004721371573251387</v>
+      </c>
+      <c r="H22">
+        <v>-0.2967962760821424</v>
+      </c>
+      <c r="I22">
+        <v>-0.01610219558390777</v>
+      </c>
+      <c r="J22">
+        <v>0.1280591777494203</v>
+      </c>
+      <c r="K22">
+        <v>-0.1780917575740528</v>
+      </c>
+      <c r="L22">
+        <v>-0.04603015315076125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.04053439399551317</v>
+        <v>0.008840272759354628</v>
       </c>
       <c r="C23">
-        <v>0.1896606176014221</v>
+        <v>0.1750654063701489</v>
       </c>
       <c r="D23">
-        <v>-0.08891679683578996</v>
+        <v>0.01622225137532215</v>
       </c>
       <c r="E23">
-        <v>-0.2810791975967786</v>
+        <v>-0.06042589834904589</v>
       </c>
       <c r="F23">
-        <v>0.1386816006479774</v>
+        <v>-0.5107286472849502</v>
       </c>
       <c r="G23">
-        <v>0.1964139729404091</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.001948577034095485</v>
+      </c>
+      <c r="H23">
+        <v>-0.2756027829674534</v>
+      </c>
+      <c r="I23">
+        <v>-0.009086968532314809</v>
+      </c>
+      <c r="J23">
+        <v>0.1155744164211</v>
+      </c>
+      <c r="K23">
+        <v>-0.1709114540080008</v>
+      </c>
+      <c r="L23">
+        <v>-0.05032247236657147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.002878919865779056</v>
+        <v>0.01594736864193474</v>
       </c>
       <c r="C24">
-        <v>0.06749416567835997</v>
+        <v>0.07045155947602702</v>
       </c>
       <c r="D24">
-        <v>0.04086957159862119</v>
+        <v>0.03958438446664857</v>
       </c>
       <c r="E24">
-        <v>0.008030116284363821</v>
+        <v>0.007357825809086185</v>
       </c>
       <c r="F24">
-        <v>0.01563332684079981</v>
+        <v>0.009825208245808594</v>
       </c>
       <c r="G24">
-        <v>-0.05546284942699202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02245021861281517</v>
+      </c>
+      <c r="H24">
+        <v>0.04145004483064013</v>
+      </c>
+      <c r="I24">
+        <v>0.02233661373407569</v>
+      </c>
+      <c r="J24">
+        <v>-0.006473331092738573</v>
+      </c>
+      <c r="K24">
+        <v>-0.01962481709904406</v>
+      </c>
+      <c r="L24">
+        <v>-0.04796041708385421</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.007017723408773449</v>
+        <v>0.02003848844361349</v>
       </c>
       <c r="C25">
-        <v>0.06636392386332959</v>
+        <v>0.0705457681687522</v>
       </c>
       <c r="D25">
-        <v>0.01627663483669199</v>
+        <v>0.02822491729664784</v>
       </c>
       <c r="E25">
-        <v>0.01680109201677935</v>
+        <v>0.008654448806165244</v>
       </c>
       <c r="F25">
-        <v>0.01816230125065528</v>
+        <v>0.007399964849078277</v>
       </c>
       <c r="G25">
-        <v>-0.05349305173703972</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.01877503093866807</v>
+      </c>
+      <c r="H25">
+        <v>0.03476984111604361</v>
+      </c>
+      <c r="I25">
+        <v>0.01100961004269898</v>
+      </c>
+      <c r="J25">
+        <v>-0.0005526727371191675</v>
+      </c>
+      <c r="K25">
+        <v>-0.0300567495820476</v>
+      </c>
+      <c r="L25">
+        <v>-0.03310571439572484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.005723670671779911</v>
+        <v>0.02381636203394846</v>
       </c>
       <c r="C26">
-        <v>0.06255527554728314</v>
+        <v>0.06025224326825875</v>
       </c>
       <c r="D26">
-        <v>0.05815327769445433</v>
+        <v>0.06435652912998742</v>
       </c>
       <c r="E26">
-        <v>-0.02051872722751781</v>
+        <v>0.007090254830935267</v>
       </c>
       <c r="F26">
-        <v>-0.01091775597215654</v>
+        <v>0.01583570921282695</v>
       </c>
       <c r="G26">
-        <v>-0.04261938430226372</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.002908924545879208</v>
+      </c>
+      <c r="H26">
+        <v>0.1029494592865211</v>
+      </c>
+      <c r="I26">
+        <v>0.04950968861227761</v>
+      </c>
+      <c r="J26">
+        <v>-0.1175590762415823</v>
+      </c>
+      <c r="K26">
+        <v>0.04523124632398658</v>
+      </c>
+      <c r="L26">
+        <v>-0.05384617645307653</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1726,367 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.3776574568401814</v>
+        <v>0.3193968963529307</v>
       </c>
       <c r="C28">
-        <v>-0.1023459656914988</v>
+        <v>-0.105457631815366</v>
       </c>
       <c r="D28">
-        <v>-0.02789542045965523</v>
+        <v>-0.03277699944358072</v>
       </c>
       <c r="E28">
-        <v>0.1043534124917404</v>
+        <v>-0.02447655954844343</v>
       </c>
       <c r="F28">
-        <v>-0.0586448179503597</v>
+        <v>-0.03266779766019275</v>
       </c>
       <c r="G28">
-        <v>0.002536072636115331</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.1254687018225675</v>
+      </c>
+      <c r="H28">
+        <v>0.06123268418477906</v>
+      </c>
+      <c r="I28">
+        <v>-0.221556321085439</v>
+      </c>
+      <c r="J28">
+        <v>0.0001372713101412938</v>
+      </c>
+      <c r="K28">
+        <v>-0.001250291205576052</v>
+      </c>
+      <c r="L28">
+        <v>-0.03301133510354507</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.004426059671720856</v>
+        <v>0.01195364205827307</v>
       </c>
       <c r="C29">
-        <v>0.07173624168967202</v>
+        <v>0.07955409721068396</v>
       </c>
       <c r="D29">
-        <v>0.04447889835781561</v>
+        <v>0.05505762747929487</v>
       </c>
       <c r="E29">
-        <v>-0.04621179325088293</v>
+        <v>-0.05498044152725217</v>
       </c>
       <c r="F29">
-        <v>0.006392326665158472</v>
+        <v>0.01181828328161642</v>
       </c>
       <c r="G29">
-        <v>-0.09115601901127299</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.1148219666838576</v>
+      </c>
+      <c r="H29">
+        <v>0.2948419484684062</v>
+      </c>
+      <c r="I29">
+        <v>0.03353595822603252</v>
+      </c>
+      <c r="J29">
+        <v>0.1381786140684907</v>
+      </c>
+      <c r="K29">
+        <v>-0.1109661111589235</v>
+      </c>
+      <c r="L29">
+        <v>0.2947279969696314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.03072541180181092</v>
+        <v>0.02914574808753222</v>
       </c>
       <c r="C30">
-        <v>0.1724002302968631</v>
+        <v>0.142523770872775</v>
       </c>
       <c r="D30">
-        <v>0.05653888521063596</v>
+        <v>0.05683002607094674</v>
       </c>
       <c r="E30">
-        <v>-0.0576453274938294</v>
+        <v>-0.006351553619394934</v>
       </c>
       <c r="F30">
-        <v>0.04688015704900685</v>
+        <v>-0.06828488325218196</v>
       </c>
       <c r="G30">
-        <v>0.005004020243307369</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.01207809205523639</v>
+      </c>
+      <c r="H30">
+        <v>0.02794481011135306</v>
+      </c>
+      <c r="I30">
+        <v>0.04226412572734026</v>
+      </c>
+      <c r="J30">
+        <v>-0.06412029091252221</v>
+      </c>
+      <c r="K30">
+        <v>0.06637529808997616</v>
+      </c>
+      <c r="L30">
+        <v>-0.02273659910529163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-0.005225879453087086</v>
+        <v>0.01260719401753045</v>
       </c>
       <c r="C31">
-        <v>0.06433135778486687</v>
+        <v>0.08214081315099094</v>
       </c>
       <c r="D31">
-        <v>0.03967392466711021</v>
+        <v>0.04188786132899364</v>
       </c>
       <c r="E31">
-        <v>0.01357292469850896</v>
+        <v>-0.000491190268488097</v>
       </c>
       <c r="F31">
-        <v>-0.01062325270440085</v>
+        <v>0.00294212963839311</v>
       </c>
       <c r="G31">
-        <v>-0.01711722806859798</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.02784997272972044</v>
+      </c>
+      <c r="H31">
+        <v>0.03483575777525627</v>
+      </c>
+      <c r="I31">
+        <v>0.01765037237637103</v>
+      </c>
+      <c r="J31">
+        <v>0.01076615289977989</v>
+      </c>
+      <c r="K31">
+        <v>-0.03863119950008125</v>
+      </c>
+      <c r="L31">
+        <v>-0.03956431429497054</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.01822976100037761</v>
+        <v>0.02154047955586847</v>
       </c>
       <c r="C32">
-        <v>0.08341555624651108</v>
+        <v>0.05619574905606044</v>
       </c>
       <c r="D32">
-        <v>-0.008986952398747991</v>
+        <v>0.01841211438347248</v>
       </c>
       <c r="E32">
-        <v>-0.1623817375920877</v>
+        <v>-0.09490177858728693</v>
       </c>
       <c r="F32">
-        <v>-0.007586924677463138</v>
+        <v>-0.07088048142519492</v>
       </c>
       <c r="G32">
-        <v>-0.0605863420421328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.06802702408376138</v>
+      </c>
+      <c r="H32">
+        <v>0.1693153803680129</v>
+      </c>
+      <c r="I32">
+        <v>-0.2494129461337606</v>
+      </c>
+      <c r="J32">
+        <v>0.09750658089281664</v>
+      </c>
+      <c r="K32">
+        <v>0.04171042328066622</v>
+      </c>
+      <c r="L32">
+        <v>0.140837845121425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.01285507410192916</v>
+        <v>0.01573259619536641</v>
       </c>
       <c r="C33">
-        <v>0.0931005869966106</v>
+        <v>0.1069443378329213</v>
       </c>
       <c r="D33">
-        <v>0.05838917711272092</v>
+        <v>0.0480246692176095</v>
       </c>
       <c r="E33">
-        <v>-0.01955178971576159</v>
+        <v>0.00301418240132567</v>
       </c>
       <c r="F33">
-        <v>0.004300562869728579</v>
+        <v>-0.01517625506734928</v>
       </c>
       <c r="G33">
-        <v>-0.03335430583393049</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.02423549370592175</v>
+      </c>
+      <c r="H33">
+        <v>0.05854543590440428</v>
+      </c>
+      <c r="I33">
+        <v>-0.01057830843946224</v>
+      </c>
+      <c r="J33">
+        <v>-0.02062867418131115</v>
+      </c>
+      <c r="K33">
+        <v>-0.01998497841690825</v>
+      </c>
+      <c r="L33">
+        <v>-0.01883334222665986</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.00343353091563526</v>
+        <v>0.01621919312236299</v>
       </c>
       <c r="C34">
-        <v>0.05206442697356328</v>
+        <v>0.05169451232118371</v>
       </c>
       <c r="D34">
-        <v>0.02358633129901138</v>
+        <v>0.02131147286202921</v>
       </c>
       <c r="E34">
-        <v>-0.001855135885717972</v>
+        <v>-9.485200903835254e-05</v>
       </c>
       <c r="F34">
-        <v>-0.003842839892023213</v>
+        <v>0.01026811587445573</v>
       </c>
       <c r="G34">
-        <v>-0.04163853644250513</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0164299165111194</v>
+      </c>
+      <c r="H34">
+        <v>0.009034537804885442</v>
+      </c>
+      <c r="I34">
+        <v>0.01586124994596133</v>
+      </c>
+      <c r="J34">
+        <v>-0.01110320393188485</v>
+      </c>
+      <c r="K34">
+        <v>-0.019395689205034</v>
+      </c>
+      <c r="L34">
+        <v>-0.04144176260024372</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.002211112676528254</v>
+        <v>0.00928812247139291</v>
       </c>
       <c r="C35">
-        <v>0.01871177541584702</v>
+        <v>0.04117226659214628</v>
       </c>
       <c r="D35">
-        <v>0.006829547143007061</v>
+        <v>0.0217472245509115</v>
       </c>
       <c r="E35">
-        <v>-0.01315281744773702</v>
+        <v>-0.01505669624727573</v>
       </c>
       <c r="F35">
-        <v>0.006937882681444755</v>
+        <v>-0.0004727381029115753</v>
       </c>
       <c r="G35">
-        <v>-0.0257295360604171</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>-0.04617550575565493</v>
+      </c>
+      <c r="H35">
+        <v>0.1497198235130055</v>
+      </c>
+      <c r="I35">
+        <v>0.008819322136748377</v>
+      </c>
+      <c r="J35">
+        <v>0.07627414610107115</v>
+      </c>
+      <c r="K35">
+        <v>-0.1170152038169304</v>
+      </c>
+      <c r="L35">
+        <v>0.1672369534121975</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.005030438398626885</v>
+        <v>0.01511698116257385</v>
       </c>
       <c r="C36">
-        <v>0.05364531921766276</v>
+        <v>0.04945107918640474</v>
       </c>
       <c r="D36">
-        <v>0.05146880651802614</v>
+        <v>0.04907136040877091</v>
       </c>
       <c r="E36">
-        <v>-0.01208330253299685</v>
+        <v>-0.0031203202364311</v>
       </c>
       <c r="F36">
-        <v>-0.004451766087637664</v>
+        <v>-0.0008357351500448912</v>
       </c>
       <c r="G36">
-        <v>-0.01945964775185434</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.002188171783121088</v>
+      </c>
+      <c r="H36">
+        <v>0.07343216378084948</v>
+      </c>
+      <c r="I36">
+        <v>0.01650897393333271</v>
+      </c>
+      <c r="J36">
+        <v>-0.04138934880361835</v>
+      </c>
+      <c r="K36">
+        <v>0.0143384133672016</v>
+      </c>
+      <c r="L36">
+        <v>-0.05660913082851866</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2106,177 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.03006623773292973</v>
+        <v>0.01213740181943559</v>
       </c>
       <c r="C38">
-        <v>0.05993704740150362</v>
+        <v>0.06397927058181185</v>
       </c>
       <c r="D38">
-        <v>0.04283972477927459</v>
+        <v>0.04160029414853286</v>
       </c>
       <c r="E38">
-        <v>0.00107236056676475</v>
+        <v>0.02605548248646061</v>
       </c>
       <c r="F38">
-        <v>0.008177451045207177</v>
+        <v>-0.01644657087744346</v>
       </c>
       <c r="G38">
-        <v>-0.009011340385540858</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.006451321417543163</v>
+      </c>
+      <c r="H38">
+        <v>0.08280913960319539</v>
+      </c>
+      <c r="I38">
+        <v>-0.0557878472212785</v>
+      </c>
+      <c r="J38">
+        <v>0.02352144510049816</v>
+      </c>
+      <c r="K38">
+        <v>-0.03315407985496809</v>
+      </c>
+      <c r="L38">
+        <v>-0.1072809300316747</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>9.205203611217613e-05</v>
+        <v>0.01551755951144768</v>
       </c>
       <c r="C39">
-        <v>0.1306021442407319</v>
+        <v>0.1270468251047184</v>
       </c>
       <c r="D39">
-        <v>0.04010597478057398</v>
+        <v>0.05496249871758083</v>
       </c>
       <c r="E39">
-        <v>-0.02062184979482394</v>
+        <v>-0.003838359227533588</v>
       </c>
       <c r="F39">
-        <v>0.03190136276339754</v>
+        <v>3.391435017775772e-05</v>
       </c>
       <c r="G39">
-        <v>-0.07477900066981769</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.04114965136182944</v>
+      </c>
+      <c r="H39">
+        <v>0.04873708364801915</v>
+      </c>
+      <c r="I39">
+        <v>0.06988062527699433</v>
+      </c>
+      <c r="J39">
+        <v>0.0002210151908922452</v>
+      </c>
+      <c r="K39">
+        <v>0.02335943989794418</v>
+      </c>
+      <c r="L39">
+        <v>-0.08019237746926103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.005524056326595981</v>
+        <v>0.0130113875810533</v>
       </c>
       <c r="C40">
-        <v>0.02736100393921063</v>
+        <v>0.06186315241448047</v>
       </c>
       <c r="D40">
-        <v>0.0282551404696833</v>
+        <v>0.03829405975526114</v>
       </c>
       <c r="E40">
-        <v>-0.1305300819174088</v>
+        <v>-0.03952247286619909</v>
       </c>
       <c r="F40">
-        <v>0.03701271382395043</v>
+        <v>-0.035293697955172</v>
       </c>
       <c r="G40">
-        <v>-0.0757878406870487</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.1459829742321965</v>
+      </c>
+      <c r="H40">
+        <v>0.03816004485502346</v>
+      </c>
+      <c r="I40">
+        <v>-0.00180411547200293</v>
+      </c>
+      <c r="J40">
+        <v>0.09098653667242505</v>
+      </c>
+      <c r="K40">
+        <v>-0.25119253027299</v>
+      </c>
+      <c r="L40">
+        <v>-0.03301931610434995</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.008018834705149953</v>
+        <v>0.02092203611659598</v>
       </c>
       <c r="C41">
-        <v>0.01935441135975455</v>
+        <v>0.04726711747301118</v>
       </c>
       <c r="D41">
-        <v>0.006310019216938664</v>
+        <v>0.01757144441339914</v>
       </c>
       <c r="E41">
-        <v>0.02580445838115705</v>
+        <v>0.01096097072189238</v>
       </c>
       <c r="F41">
-        <v>-0.02696563947865255</v>
+        <v>0.02412037971668842</v>
       </c>
       <c r="G41">
-        <v>0.03079316679370281</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.009977241073247819</v>
+      </c>
+      <c r="H41">
+        <v>0.02534913516688393</v>
+      </c>
+      <c r="I41">
+        <v>-0.02657626636706288</v>
+      </c>
+      <c r="J41">
+        <v>0.02907343104395875</v>
+      </c>
+      <c r="K41">
+        <v>-0.04513168227559616</v>
+      </c>
+      <c r="L41">
+        <v>-0.01211110726352576</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2296,101 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.00137161175423411</v>
+        <v>0.01739823028132448</v>
       </c>
       <c r="C43">
-        <v>0.01856977435911484</v>
+        <v>0.04441706018467274</v>
       </c>
       <c r="D43">
-        <v>0.01133522347535978</v>
+        <v>0.030276677645438</v>
       </c>
       <c r="E43">
-        <v>0.00793473091597002</v>
+        <v>0.01508867434861581</v>
       </c>
       <c r="F43">
-        <v>0.004789429791863054</v>
+        <v>0.006231236202963294</v>
       </c>
       <c r="G43">
-        <v>0.005326286966079397</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.00330629945499267</v>
+      </c>
+      <c r="H43">
+        <v>0.04419237933426023</v>
+      </c>
+      <c r="I43">
+        <v>0.0004856805565096983</v>
+      </c>
+      <c r="J43">
+        <v>0.03134341630062302</v>
+      </c>
+      <c r="K43">
+        <v>-0.02949770676924253</v>
+      </c>
+      <c r="L43">
+        <v>-0.0148452695147662</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.02286817901997717</v>
+        <v>0.01183912039791851</v>
       </c>
       <c r="C44">
-        <v>0.1016083025968743</v>
+        <v>0.09560042488765211</v>
       </c>
       <c r="D44">
-        <v>0.02500082674749388</v>
+        <v>0.05699000629180926</v>
       </c>
       <c r="E44">
-        <v>-0.06105068713018817</v>
+        <v>0.001558842225126401</v>
       </c>
       <c r="F44">
-        <v>0.04972896084337887</v>
+        <v>-0.06380075416100459</v>
       </c>
       <c r="G44">
-        <v>-0.01959446725386891</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04028409982717202</v>
+      </c>
+      <c r="H44">
+        <v>0.0514929413966886</v>
+      </c>
+      <c r="I44">
+        <v>0.05465594257886097</v>
+      </c>
+      <c r="J44">
+        <v>-0.03138450638664959</v>
+      </c>
+      <c r="K44">
+        <v>0.06607202162294941</v>
+      </c>
+      <c r="L44">
+        <v>0.007292393613924081</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2410,253 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>-0.007427917554519219</v>
+        <v>0.003168947449002799</v>
       </c>
       <c r="C46">
-        <v>0.07151003477809173</v>
+        <v>0.06506219653141594</v>
       </c>
       <c r="D46">
-        <v>0.04483917847343459</v>
+        <v>0.03141484027530116</v>
       </c>
       <c r="E46">
-        <v>-0.03172110269721332</v>
+        <v>-0.008197197165783061</v>
       </c>
       <c r="F46">
-        <v>0.01086825914299672</v>
+        <v>0.0159719370583411</v>
       </c>
       <c r="G46">
-        <v>-0.0580703578356643</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.03581717950956936</v>
+      </c>
+      <c r="H46">
+        <v>0.1041619373422643</v>
+      </c>
+      <c r="I46">
+        <v>0.01064374965724096</v>
+      </c>
+      <c r="J46">
+        <v>0.05626658483115266</v>
+      </c>
+      <c r="K46">
+        <v>-0.0529362392742255</v>
+      </c>
+      <c r="L46">
+        <v>0.04729411190522761</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.008840682817896222</v>
+        <v>0.02333335217134179</v>
       </c>
       <c r="C47">
-        <v>0.08823266577099832</v>
+        <v>0.08366436052500616</v>
       </c>
       <c r="D47">
-        <v>0.0456470280322631</v>
+        <v>0.04613133688618775</v>
       </c>
       <c r="E47">
-        <v>0.02010604995691519</v>
+        <v>-0.002603562596371751</v>
       </c>
       <c r="F47">
-        <v>-0.02830432987859599</v>
+        <v>0.02139635114068142</v>
       </c>
       <c r="G47">
-        <v>-0.05827469070407118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.007246973265429594</v>
+      </c>
+      <c r="H47">
+        <v>0.07142077012615665</v>
+      </c>
+      <c r="I47">
+        <v>-0.02364682098690847</v>
+      </c>
+      <c r="J47">
+        <v>0.02057389571589374</v>
+      </c>
+      <c r="K47">
+        <v>-0.03280860061534286</v>
+      </c>
+      <c r="L47">
+        <v>-0.04552342037874049</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.01208704125486551</v>
+        <v>0.02154910032189665</v>
       </c>
       <c r="C48">
-        <v>0.05173649533656037</v>
+        <v>0.05264022858704316</v>
       </c>
       <c r="D48">
-        <v>0.06012339127869933</v>
+        <v>0.05647601398106134</v>
       </c>
       <c r="E48">
-        <v>-0.0105808645365155</v>
+        <v>0.006000170434479704</v>
       </c>
       <c r="F48">
-        <v>0.004271514999267456</v>
+        <v>0.002379103663066867</v>
       </c>
       <c r="G48">
-        <v>-0.02517020305202993</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.0004891099220240301</v>
+      </c>
+      <c r="H48">
+        <v>0.1000340146433452</v>
+      </c>
+      <c r="I48">
+        <v>0.03292668161993564</v>
+      </c>
+      <c r="J48">
+        <v>-0.08730927642835969</v>
+      </c>
+      <c r="K48">
+        <v>0.04277923845856818</v>
+      </c>
+      <c r="L48">
+        <v>-0.06419327745035305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.006671265955936201</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.02512861842607511</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.0004568157352158871</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.01975349650536836</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.03277507171799525</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.03005434707831968</v>
+      </c>
+      <c r="H49">
+        <v>-0.02240201286685756</v>
+      </c>
+      <c r="I49">
+        <v>0.04816056314491068</v>
+      </c>
+      <c r="J49">
+        <v>-0.04410831725141211</v>
+      </c>
+      <c r="K49">
+        <v>-7.234917586415686e-05</v>
+      </c>
+      <c r="L49">
+        <v>-0.005447941987835902</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>-0.002960419170412097</v>
+        <v>0.01277893026924978</v>
       </c>
       <c r="C50">
-        <v>0.0766030513515675</v>
+        <v>0.0806586983854691</v>
       </c>
       <c r="D50">
-        <v>0.03036831727247861</v>
+        <v>0.02937768183690503</v>
       </c>
       <c r="E50">
-        <v>-0.001856237333506581</v>
+        <v>0.001473472035061722</v>
       </c>
       <c r="F50">
-        <v>0.005739145332671086</v>
+        <v>-0.002028981125607233</v>
       </c>
       <c r="G50">
-        <v>-0.008369517236383571</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01388638011484133</v>
+      </c>
+      <c r="H50">
+        <v>0.05714761660679833</v>
+      </c>
+      <c r="I50">
+        <v>-0.0368741246222282</v>
+      </c>
+      <c r="J50">
+        <v>0.009342393336489486</v>
+      </c>
+      <c r="K50">
+        <v>-0.02792935815423978</v>
+      </c>
+      <c r="L50">
+        <v>-0.02165704469407394</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>-0.001080735948352266</v>
+        <v>-0.007734844726299514</v>
       </c>
       <c r="C51">
-        <v>0.08102185050605373</v>
+        <v>0.03956866721971142</v>
       </c>
       <c r="D51">
-        <v>0.005822271250564563</v>
+        <v>0.02326748033359548</v>
       </c>
       <c r="E51">
-        <v>-0.08108329773693858</v>
+        <v>-0.01839075631838678</v>
       </c>
       <c r="F51">
-        <v>0.04264711104296985</v>
+        <v>-0.02856809718654818</v>
       </c>
       <c r="G51">
-        <v>-0.01516095734829458</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.02923702507917427</v>
+      </c>
+      <c r="H51">
+        <v>0.09366733194203918</v>
+      </c>
+      <c r="I51">
+        <v>0.01506602214391598</v>
+      </c>
+      <c r="J51">
+        <v>-0.08590239406263915</v>
+      </c>
+      <c r="K51">
+        <v>0.0832126209826741</v>
+      </c>
+      <c r="L51">
+        <v>0.01902231297798087</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2676,177 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.04173820537668354</v>
+        <v>0.05697417427317485</v>
       </c>
       <c r="C53">
-        <v>0.1324487086977615</v>
+        <v>0.1318914213449728</v>
       </c>
       <c r="D53">
-        <v>0.06833417061216904</v>
+        <v>0.05737762337401669</v>
       </c>
       <c r="E53">
-        <v>0.12984461788841</v>
+        <v>0.01254161662443082</v>
       </c>
       <c r="F53">
-        <v>-0.03210974232490783</v>
+        <v>0.06920531950015098</v>
       </c>
       <c r="G53">
-        <v>0.02225273468539873</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.08332646137599836</v>
+      </c>
+      <c r="H53">
+        <v>-0.02846185504628452</v>
+      </c>
+      <c r="I53">
+        <v>-0.0455572655073661</v>
+      </c>
+      <c r="J53">
+        <v>-0.008717688525021697</v>
+      </c>
+      <c r="K53">
+        <v>-0.0309325692253185</v>
+      </c>
+      <c r="L53">
+        <v>-0.1095880941710915</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.008213818740712637</v>
+        <v>0.01778137266078709</v>
       </c>
       <c r="C54">
-        <v>0.07116573482019012</v>
+        <v>0.07688005778295544</v>
       </c>
       <c r="D54">
-        <v>0.01084024151104851</v>
+        <v>0.01225590257989757</v>
       </c>
       <c r="E54">
-        <v>0.01612899774921956</v>
+        <v>-0.001415233384952992</v>
       </c>
       <c r="F54">
-        <v>0.009435425687137202</v>
+        <v>0.0203760665656614</v>
       </c>
       <c r="G54">
-        <v>-0.03118341788637858</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.02056106688828089</v>
+      </c>
+      <c r="H54">
+        <v>0.05588561043800254</v>
+      </c>
+      <c r="I54">
+        <v>0.0308438277572742</v>
+      </c>
+      <c r="J54">
+        <v>-0.00486672665991161</v>
+      </c>
+      <c r="K54">
+        <v>-0.01442214314540149</v>
+      </c>
+      <c r="L54">
+        <v>0.01115579186028369</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.02471111007439904</v>
+        <v>0.03255319163426941</v>
       </c>
       <c r="C55">
-        <v>0.09382158334826134</v>
+        <v>0.08867630937136339</v>
       </c>
       <c r="D55">
-        <v>0.06657209469619717</v>
+        <v>0.05482418367471688</v>
       </c>
       <c r="E55">
-        <v>0.06360832211468158</v>
+        <v>0.01504406730211029</v>
       </c>
       <c r="F55">
-        <v>-0.03643760424967152</v>
+        <v>0.05198961140036314</v>
       </c>
       <c r="G55">
-        <v>-0.01223657222096553</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.0426628548274367</v>
+      </c>
+      <c r="H55">
+        <v>-0.01565357074514937</v>
+      </c>
+      <c r="I55">
+        <v>0.01063795095017875</v>
+      </c>
+      <c r="J55">
+        <v>-0.01008186069555032</v>
+      </c>
+      <c r="K55">
+        <v>-0.01689232796566596</v>
+      </c>
+      <c r="L55">
+        <v>-0.06153123149493646</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.02987269790154579</v>
+        <v>0.04500724406523225</v>
       </c>
       <c r="C56">
-        <v>0.1659440529896508</v>
+        <v>0.1537294433733958</v>
       </c>
       <c r="D56">
-        <v>0.06176023230299137</v>
+        <v>0.07953118806849352</v>
       </c>
       <c r="E56">
-        <v>0.134861522995573</v>
+        <v>-0.002637750076659724</v>
       </c>
       <c r="F56">
-        <v>-0.0815529899190662</v>
+        <v>0.09720361002156128</v>
       </c>
       <c r="G56">
-        <v>0.05202056599464141</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.156080433394927</v>
+      </c>
+      <c r="H56">
+        <v>-0.0453250823166246</v>
+      </c>
+      <c r="I56">
+        <v>-0.02521663376217753</v>
+      </c>
+      <c r="J56">
+        <v>-0.0412664695695948</v>
+      </c>
+      <c r="K56">
+        <v>-0.004828796749580938</v>
+      </c>
+      <c r="L56">
+        <v>-0.06085007003230211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2866,481 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.02386877622818794</v>
+        <v>0.01742150041746399</v>
       </c>
       <c r="C58">
-        <v>0.2738547035021989</v>
+        <v>0.1771073549628814</v>
       </c>
       <c r="D58">
-        <v>-0.0712376455880934</v>
+        <v>0.03679883590742374</v>
       </c>
       <c r="E58">
-        <v>-0.2644979384079835</v>
+        <v>-0.05204931814508927</v>
       </c>
       <c r="F58">
-        <v>0.2322838318569933</v>
+        <v>-0.323906510182173</v>
       </c>
       <c r="G58">
-        <v>0.2533621126443933</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.05766454393209346</v>
+      </c>
+      <c r="H58">
+        <v>0.03908607254634822</v>
+      </c>
+      <c r="I58">
+        <v>-0.04173597752582613</v>
+      </c>
+      <c r="J58">
+        <v>-0.1533128828762043</v>
+      </c>
+      <c r="K58">
+        <v>0.4285435779946082</v>
+      </c>
+      <c r="L58">
+        <v>0.216942267381228</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.2778724698197</v>
+        <v>0.2883039400267461</v>
       </c>
       <c r="C59">
-        <v>-0.001712263456402378</v>
+        <v>-0.04085700527947334</v>
       </c>
       <c r="D59">
-        <v>-0.04219091340676589</v>
+        <v>-0.007673650426936566</v>
       </c>
       <c r="E59">
-        <v>-0.04410046918100795</v>
+        <v>-0.03719677280403878</v>
       </c>
       <c r="F59">
-        <v>-0.04811853577570133</v>
+        <v>-0.03629973377389181</v>
       </c>
       <c r="G59">
-        <v>-0.02639583454395853</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.004105296587813007</v>
+      </c>
+      <c r="H59">
+        <v>-0.02218788553893124</v>
+      </c>
+      <c r="I59">
+        <v>-0.02303277389569601</v>
+      </c>
+      <c r="J59">
+        <v>0.005226897902703233</v>
+      </c>
+      <c r="K59">
+        <v>-0.02272440571119758</v>
+      </c>
+      <c r="L59">
+        <v>-0.0177869976295835</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.1150181059031796</v>
+        <v>0.1478951728976115</v>
       </c>
       <c r="C60">
-        <v>0.1510319265129016</v>
+        <v>0.1581333032649054</v>
       </c>
       <c r="D60">
-        <v>0.07156935065301115</v>
+        <v>0.04611555544153215</v>
       </c>
       <c r="E60">
-        <v>0.06686690405692348</v>
+        <v>-0.003281618220384637</v>
       </c>
       <c r="F60">
-        <v>0.00592181113479336</v>
+        <v>0.1244891680805603</v>
       </c>
       <c r="G60">
-        <v>-0.2994992151630416</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.2540242939708671</v>
+      </c>
+      <c r="H60">
+        <v>-0.2290378132480872</v>
+      </c>
+      <c r="I60">
+        <v>0.01641574726124265</v>
+      </c>
+      <c r="J60">
+        <v>0.01272466021212801</v>
+      </c>
+      <c r="K60">
+        <v>0.02225358395635993</v>
+      </c>
+      <c r="L60">
+        <v>0.1101344071316735</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.0008230648393027266</v>
+        <v>0.01889002635277089</v>
       </c>
       <c r="C61">
-        <v>0.08710300010530438</v>
+        <v>0.09685647265469587</v>
       </c>
       <c r="D61">
-        <v>0.05096310806276071</v>
+        <v>0.05199122450454173</v>
       </c>
       <c r="E61">
-        <v>0.01753529212555779</v>
+        <v>0.0005847819468059889</v>
       </c>
       <c r="F61">
-        <v>0.006839152939661071</v>
+        <v>0.03097011096947717</v>
       </c>
       <c r="G61">
-        <v>-0.07621448840356597</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02426371893534781</v>
+      </c>
+      <c r="H61">
+        <v>0.06289032004145319</v>
+      </c>
+      <c r="I61">
+        <v>0.03446013264778598</v>
+      </c>
+      <c r="J61">
+        <v>-0.0087760991915637</v>
+      </c>
+      <c r="K61">
+        <v>-0.03153708475449896</v>
+      </c>
+      <c r="L61">
+        <v>-0.04858287937073372</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.002499565621446337</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01218922773694124</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.003214478293159816</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.002433673771157308</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01391854576008012</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.01490483649916939</v>
+      </c>
+      <c r="H62">
+        <v>0.006635333754192619</v>
+      </c>
+      <c r="I62">
+        <v>0.001460394675232518</v>
+      </c>
+      <c r="J62">
+        <v>-0.04883684033297567</v>
+      </c>
+      <c r="K62">
+        <v>-0.04275564171895691</v>
+      </c>
+      <c r="L62">
+        <v>0.06853618287331435</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>-0.004297372781546366</v>
+        <v>0.02559273630048925</v>
       </c>
       <c r="C63">
-        <v>0.07085495667746031</v>
+        <v>0.07197947702548349</v>
       </c>
       <c r="D63">
-        <v>0.03887294204379092</v>
+        <v>0.06048250895169118</v>
       </c>
       <c r="E63">
-        <v>0.02090527827151024</v>
+        <v>-0.002389698919522604</v>
       </c>
       <c r="F63">
-        <v>0.01213466676282577</v>
+        <v>0.01998392209410877</v>
       </c>
       <c r="G63">
-        <v>-0.03244906922899198</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.004523558404864274</v>
+      </c>
+      <c r="H63">
+        <v>0.06377154656751723</v>
+      </c>
+      <c r="I63">
+        <v>0.02053460514470845</v>
+      </c>
+      <c r="J63">
+        <v>-0.03252098039543459</v>
+      </c>
+      <c r="K63">
+        <v>-0.03895211922687441</v>
+      </c>
+      <c r="L63">
+        <v>-0.04575290325419246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.007311685491939657</v>
+        <v>0.01487947363719682</v>
       </c>
       <c r="C64">
-        <v>0.07858997223653662</v>
+        <v>0.08871991374068194</v>
       </c>
       <c r="D64">
-        <v>0.06545412887677496</v>
+        <v>0.03389063229348701</v>
       </c>
       <c r="E64">
-        <v>-0.02227313362819592</v>
+        <v>0.02435015733338161</v>
       </c>
       <c r="F64">
-        <v>0.03136103285711695</v>
+        <v>-0.04042471693514521</v>
       </c>
       <c r="G64">
-        <v>-0.05902082202128891</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.06990535825815834</v>
+      </c>
+      <c r="H64">
+        <v>0.04717518526617984</v>
+      </c>
+      <c r="I64">
+        <v>0.03856815511421587</v>
+      </c>
+      <c r="J64">
+        <v>-0.0280292008254823</v>
+      </c>
+      <c r="K64">
+        <v>-0.04886699226029082</v>
+      </c>
+      <c r="L64">
+        <v>-0.1173790264336327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.0145641279906231</v>
+        <v>0.02993549439897754</v>
       </c>
       <c r="C65">
-        <v>0.07972529116636665</v>
+        <v>0.09374793401625044</v>
       </c>
       <c r="D65">
-        <v>0.03123794620478402</v>
+        <v>0.01906496404648935</v>
       </c>
       <c r="E65">
-        <v>-0.03175719099483609</v>
+        <v>0.02525900953977223</v>
       </c>
       <c r="F65">
-        <v>0.02907878149769114</v>
+        <v>-0.009293092693974913</v>
       </c>
       <c r="G65">
-        <v>-0.01897176226137768</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.09858608912239751</v>
+      </c>
+      <c r="H65">
+        <v>-0.0001967958433940497</v>
+      </c>
+      <c r="I65">
+        <v>0.07259676810485641</v>
+      </c>
+      <c r="J65">
+        <v>-0.004435691597167513</v>
+      </c>
+      <c r="K65">
+        <v>0.0995898447492103</v>
+      </c>
+      <c r="L65">
+        <v>-0.03325115243674116</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.0007526831449637461</v>
+        <v>0.01065351808770083</v>
       </c>
       <c r="C66">
-        <v>0.167400582898884</v>
+        <v>0.1630321582341293</v>
       </c>
       <c r="D66">
-        <v>0.02390525621248464</v>
+        <v>0.04724725769676495</v>
       </c>
       <c r="E66">
-        <v>-0.05992292900607134</v>
+        <v>-0.01755749507384066</v>
       </c>
       <c r="F66">
-        <v>0.02300283504015083</v>
+        <v>-0.007459127959504052</v>
       </c>
       <c r="G66">
-        <v>-0.0898534218848711</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.02459947212076099</v>
+      </c>
+      <c r="H66">
+        <v>0.06067117755584794</v>
+      </c>
+      <c r="I66">
+        <v>0.05395082768556145</v>
+      </c>
+      <c r="J66">
+        <v>-0.02310966275987491</v>
+      </c>
+      <c r="K66">
+        <v>0.005855039903860606</v>
+      </c>
+      <c r="L66">
+        <v>-0.04548870129521564</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.02852832147402842</v>
+        <v>0.02090401370161644</v>
       </c>
       <c r="C67">
-        <v>0.03558342948832064</v>
+        <v>0.05353376922503943</v>
       </c>
       <c r="D67">
-        <v>0.06152196357517177</v>
+        <v>0.0430546718684303</v>
       </c>
       <c r="E67">
-        <v>0.03809004080047776</v>
+        <v>0.03216108516253073</v>
       </c>
       <c r="F67">
-        <v>0.001094645142898168</v>
+        <v>0.01892899795558428</v>
       </c>
       <c r="G67">
-        <v>-0.02478294756155432</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01903185811638209</v>
+      </c>
+      <c r="H67">
+        <v>0.05889103419439716</v>
+      </c>
+      <c r="I67">
+        <v>-0.05109074898745277</v>
+      </c>
+      <c r="J67">
+        <v>0.05346886164354825</v>
+      </c>
+      <c r="K67">
+        <v>-0.03432426108223122</v>
+      </c>
+      <c r="L67">
+        <v>-0.09888141107750813</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.2895660160543377</v>
+        <v>0.295082000861877</v>
       </c>
       <c r="C68">
-        <v>-0.03984389540795678</v>
+        <v>-0.0662584038685332</v>
       </c>
       <c r="D68">
-        <v>-0.03633279614871637</v>
+        <v>-0.02772639472066847</v>
       </c>
       <c r="E68">
-        <v>-0.02831405803783522</v>
+        <v>-0.01402076912043081</v>
       </c>
       <c r="F68">
-        <v>0.006802850203583261</v>
+        <v>-0.03082446330577097</v>
       </c>
       <c r="G68">
-        <v>0.01726525580911087</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02061696947236005</v>
+      </c>
+      <c r="H68">
+        <v>0.02518812035523853</v>
+      </c>
+      <c r="I68">
+        <v>-0.03371610065324118</v>
+      </c>
+      <c r="J68">
+        <v>-0.06087717129901674</v>
+      </c>
+      <c r="K68">
+        <v>-0.03587097974868426</v>
+      </c>
+      <c r="L68">
+        <v>0.02214257732301589</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.009387673156757094</v>
+        <v>0.007020610114818891</v>
       </c>
       <c r="C69">
-        <v>0.05782675318119119</v>
+        <v>0.05349691987827326</v>
       </c>
       <c r="D69">
-        <v>0.04568470088183885</v>
+        <v>0.02381702267151376</v>
       </c>
       <c r="E69">
-        <v>0.01290842180337025</v>
+        <v>-0.001023969716860121</v>
       </c>
       <c r="F69">
-        <v>0.002741756855715575</v>
+        <v>0.01060893630216889</v>
       </c>
       <c r="G69">
-        <v>-0.02239381007685055</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02592835883045989</v>
+      </c>
+      <c r="H69">
+        <v>0.04969082371974841</v>
+      </c>
+      <c r="I69">
+        <v>-0.01487351648244727</v>
+      </c>
+      <c r="J69">
+        <v>-0.00029083553405607</v>
+      </c>
+      <c r="K69">
+        <v>-0.01362128871397916</v>
+      </c>
+      <c r="L69">
+        <v>-0.03623208388651749</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3360,975 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.2815852162786712</v>
+        <v>0.277604114535639</v>
       </c>
       <c r="C71">
-        <v>-0.04654082718960056</v>
+        <v>-0.07263228488977706</v>
       </c>
       <c r="D71">
-        <v>-0.03696422249423119</v>
+        <v>-0.02476316570805887</v>
       </c>
       <c r="E71">
-        <v>-0.02647952340720345</v>
+        <v>0.0006672571064152632</v>
       </c>
       <c r="F71">
-        <v>0.0263846726288316</v>
+        <v>-0.06134422411801201</v>
       </c>
       <c r="G71">
-        <v>0.003992365340957286</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02161187335504751</v>
+      </c>
+      <c r="H71">
+        <v>0.05309953512533495</v>
+      </c>
+      <c r="I71">
+        <v>-0.1219549749687937</v>
+      </c>
+      <c r="J71">
+        <v>-0.06167005880370603</v>
+      </c>
+      <c r="K71">
+        <v>-0.001166549635222561</v>
+      </c>
+      <c r="L71">
+        <v>-0.0365833341403031</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.03265593149390622</v>
+        <v>0.05287917640170278</v>
       </c>
       <c r="C72">
-        <v>0.1537930191536555</v>
+        <v>0.1404481321804799</v>
       </c>
       <c r="D72">
-        <v>0.06652921783671327</v>
+        <v>0.04503534248785874</v>
       </c>
       <c r="E72">
-        <v>-0.02967457022628434</v>
+        <v>0.009391954431882607</v>
       </c>
       <c r="F72">
-        <v>0.1046164310563757</v>
+        <v>0.02792708805364333</v>
       </c>
       <c r="G72">
-        <v>-0.08663525833579316</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02701432398006029</v>
+      </c>
+      <c r="H72">
+        <v>0.02431102491689977</v>
+      </c>
+      <c r="I72">
+        <v>0.1138035372439071</v>
+      </c>
+      <c r="J72">
+        <v>-0.001823076250553634</v>
+      </c>
+      <c r="K72">
+        <v>0.06941690308781494</v>
+      </c>
+      <c r="L72">
+        <v>-0.05600196416827328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.07159002289191792</v>
+        <v>0.1486204592100409</v>
       </c>
       <c r="C73">
-        <v>0.1230934447143297</v>
+        <v>0.1949436738415053</v>
       </c>
       <c r="D73">
-        <v>0.1064133661776028</v>
+        <v>0.08083588242103744</v>
       </c>
       <c r="E73">
-        <v>0.1366459086866832</v>
+        <v>0.04993911906088227</v>
       </c>
       <c r="F73">
-        <v>0.04701149946889942</v>
+        <v>0.2377401923495441</v>
       </c>
       <c r="G73">
-        <v>-0.4046825881470942</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.3887966579337797</v>
+      </c>
+      <c r="H73">
+        <v>-0.3008378350462961</v>
+      </c>
+      <c r="I73">
+        <v>-0.08694041303052105</v>
+      </c>
+      <c r="J73">
+        <v>0.00583335264832674</v>
+      </c>
+      <c r="K73">
+        <v>0.08794329656878655</v>
+      </c>
+      <c r="L73">
+        <v>0.006597599124036781</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.01744907578782835</v>
+        <v>0.03942418102339253</v>
       </c>
       <c r="C74">
-        <v>0.09993348652833133</v>
+        <v>0.1037031320617676</v>
       </c>
       <c r="D74">
-        <v>0.07290845384330757</v>
+        <v>0.04702289759681599</v>
       </c>
       <c r="E74">
-        <v>0.07827211525560789</v>
+        <v>0.01493030997409498</v>
       </c>
       <c r="F74">
-        <v>-0.04870851649309284</v>
+        <v>0.04385842881960821</v>
       </c>
       <c r="G74">
-        <v>0.01470320994853596</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05010370432398657</v>
+      </c>
+      <c r="H74">
+        <v>-0.002078068721800739</v>
+      </c>
+      <c r="I74">
+        <v>0.01007638218639722</v>
+      </c>
+      <c r="J74">
+        <v>-0.06792030119423814</v>
+      </c>
+      <c r="K74">
+        <v>-0.02094203974398588</v>
+      </c>
+      <c r="L74">
+        <v>-0.04942087624455326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.06303900066811081</v>
+        <v>0.06333810809118795</v>
       </c>
       <c r="C75">
-        <v>0.1467218164470595</v>
+        <v>0.1676299566874112</v>
       </c>
       <c r="D75">
-        <v>0.09611005142575008</v>
+        <v>0.08649387308554733</v>
       </c>
       <c r="E75">
-        <v>0.1976037039424783</v>
+        <v>0.08088553741980564</v>
       </c>
       <c r="F75">
-        <v>-0.07206752883660913</v>
+        <v>0.1021996635110628</v>
       </c>
       <c r="G75">
-        <v>0.146699377712717</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.2267807586996442</v>
+      </c>
+      <c r="H75">
+        <v>-0.03573857389345983</v>
+      </c>
+      <c r="I75">
+        <v>-0.1220734384405777</v>
+      </c>
+      <c r="J75">
+        <v>-0.0156748426327133</v>
+      </c>
+      <c r="K75">
+        <v>-0.09771881944773175</v>
+      </c>
+      <c r="L75">
+        <v>-0.06787550425467974</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.02773732845745249</v>
+        <v>0.04209888828742732</v>
       </c>
       <c r="C76">
-        <v>0.1141036013755009</v>
+        <v>0.1244425693804915</v>
       </c>
       <c r="D76">
-        <v>0.06705240200273876</v>
+        <v>0.07401277393047136</v>
       </c>
       <c r="E76">
-        <v>0.101895095920217</v>
+        <v>0.02374086038372911</v>
       </c>
       <c r="F76">
-        <v>-0.07113686284767595</v>
+        <v>0.08015308684699064</v>
       </c>
       <c r="G76">
-        <v>0.00439380671523515</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.08177402495051973</v>
+      </c>
+      <c r="H76">
+        <v>-0.01568673180435285</v>
+      </c>
+      <c r="I76">
+        <v>0.008485889592276051</v>
+      </c>
+      <c r="J76">
+        <v>-0.04924252988478338</v>
+      </c>
+      <c r="K76">
+        <v>-0.07332214899596479</v>
+      </c>
+      <c r="L76">
+        <v>-0.1141534791760655</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.06543927252413625</v>
+        <v>0.0445914202643709</v>
       </c>
       <c r="C77">
-        <v>0.3288132676600857</v>
+        <v>0.3966942926847303</v>
       </c>
       <c r="D77">
-        <v>-0.8416214362385918</v>
+        <v>-0.9009561814706005</v>
       </c>
       <c r="E77">
-        <v>0.3267517146223867</v>
+        <v>0.06472941770568148</v>
       </c>
       <c r="F77">
-        <v>0.032847697886163</v>
+        <v>0.07110696689504255</v>
       </c>
       <c r="G77">
-        <v>-0.05240859388232232</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.03428600402426358</v>
+      </c>
+      <c r="H77">
+        <v>0.05680206813755199</v>
+      </c>
+      <c r="I77">
+        <v>0.0007269277361978563</v>
+      </c>
+      <c r="J77">
+        <v>-0.02358128498559737</v>
+      </c>
+      <c r="K77">
+        <v>-0.01772568008357073</v>
+      </c>
+      <c r="L77">
+        <v>0.01081437973246683</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.03157320667173869</v>
+        <v>0.03250688807209531</v>
       </c>
       <c r="C78">
-        <v>0.1483449590338234</v>
+        <v>0.1126564969112458</v>
       </c>
       <c r="D78">
-        <v>0.1023596554261243</v>
+        <v>0.09809460271657153</v>
       </c>
       <c r="E78">
-        <v>-0.08062762441234654</v>
+        <v>-0.04656386268651321</v>
       </c>
       <c r="F78">
-        <v>-0.1033334436189678</v>
+        <v>0.004714457887334348</v>
       </c>
       <c r="G78">
-        <v>0.01912869187959072</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.113074323846939</v>
+      </c>
+      <c r="H78">
+        <v>0.05426082201342733</v>
+      </c>
+      <c r="I78">
+        <v>0.06248891592625238</v>
+      </c>
+      <c r="J78">
+        <v>-0.225079785345233</v>
+      </c>
+      <c r="K78">
+        <v>0.3514903870252386</v>
+      </c>
+      <c r="L78">
+        <v>0.01820325778078448</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.033142022348833</v>
+        <v>0.05486624807418332</v>
       </c>
       <c r="C79">
-        <v>0.1796257759571916</v>
+        <v>0.1424433358474808</v>
       </c>
       <c r="D79">
-        <v>0.1234227502979251</v>
+        <v>0.06847622789187775</v>
       </c>
       <c r="E79">
-        <v>0.1294479429799245</v>
+        <v>0.003749054060977823</v>
       </c>
       <c r="F79">
-        <v>-0.1365293800280334</v>
+        <v>0.06914468376253533</v>
       </c>
       <c r="G79">
-        <v>0.1389708220140665</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.2348725643436256</v>
+      </c>
+      <c r="H79">
+        <v>-0.007507005084911596</v>
+      </c>
+      <c r="I79">
+        <v>-0.07494676028198702</v>
+      </c>
+      <c r="J79">
+        <v>-0.09264001117571508</v>
+      </c>
+      <c r="K79">
+        <v>0.016055301476028</v>
+      </c>
+      <c r="L79">
+        <v>-0.0427430904621053</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.01241250232802505</v>
+        <v>0.02025414878449581</v>
       </c>
       <c r="C80">
-        <v>0.04289341948280995</v>
+        <v>0.05223708476272204</v>
       </c>
       <c r="D80">
-        <v>0.05030053678432728</v>
+        <v>0.04013139277002857</v>
       </c>
       <c r="E80">
-        <v>0.008740883072359004</v>
+        <v>-0.05425870862951493</v>
       </c>
       <c r="F80">
-        <v>-0.03315402648696361</v>
+        <v>-0.007921510887991748</v>
       </c>
       <c r="G80">
-        <v>0.002227648316158837</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.0533888612051923</v>
+      </c>
+      <c r="H80">
+        <v>-0.03128239426371515</v>
+      </c>
+      <c r="I80">
+        <v>-0.03690724003079703</v>
+      </c>
+      <c r="J80">
+        <v>0.04442159348652833</v>
+      </c>
+      <c r="K80">
+        <v>-0.06414617728335656</v>
+      </c>
+      <c r="L80">
+        <v>-0.07481809234588888</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.01033985845371655</v>
+        <v>0.01605796432544614</v>
       </c>
       <c r="C81">
-        <v>0.08492296194095424</v>
+        <v>0.1004718774640198</v>
       </c>
       <c r="D81">
-        <v>0.08384391056254412</v>
+        <v>0.05565507537497728</v>
       </c>
       <c r="E81">
-        <v>0.1101640380037915</v>
+        <v>0.003480307967232781</v>
       </c>
       <c r="F81">
-        <v>-0.08206807640624224</v>
+        <v>0.05278433922264503</v>
       </c>
       <c r="G81">
-        <v>0.03736324684121778</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1150697444511743</v>
+      </c>
+      <c r="H81">
+        <v>0.03977289467664985</v>
+      </c>
+      <c r="I81">
+        <v>-0.0500809357571436</v>
+      </c>
+      <c r="J81">
+        <v>-0.02802138948015158</v>
+      </c>
+      <c r="K81">
+        <v>-0.05423706670417314</v>
+      </c>
+      <c r="L81">
+        <v>-0.08524825386432075</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.0285483341625051</v>
+        <v>0.04593454481416661</v>
       </c>
       <c r="C82">
-        <v>0.09213478461472323</v>
+        <v>0.1062731180875389</v>
       </c>
       <c r="D82">
-        <v>0.07929569309509443</v>
+        <v>0.06736116845251429</v>
       </c>
       <c r="E82">
-        <v>0.1173629655464566</v>
+        <v>0.01504401569961942</v>
       </c>
       <c r="F82">
-        <v>-0.05564831714809721</v>
+        <v>0.07330958209091505</v>
       </c>
       <c r="G82">
-        <v>0.01081498832235755</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.09707187811387899</v>
+      </c>
+      <c r="H82">
+        <v>0.003873751647136107</v>
+      </c>
+      <c r="I82">
+        <v>-0.01501686419462752</v>
+      </c>
+      <c r="J82">
+        <v>-0.03879205411073288</v>
+      </c>
+      <c r="K82">
+        <v>-0.04291327406161986</v>
+      </c>
+      <c r="L82">
+        <v>-0.1127053170657537</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.003699958583342469</v>
+        <v>0.001164229643920091</v>
       </c>
       <c r="C83">
-        <v>0.04424834042939372</v>
+        <v>-0.001685023885339605</v>
       </c>
       <c r="D83">
-        <v>-0.1877777602644084</v>
+        <v>-0.06398694868400638</v>
       </c>
       <c r="E83">
-        <v>-0.3822528343954904</v>
+        <v>-0.9438302984075646</v>
       </c>
       <c r="F83">
-        <v>-0.8229728374073337</v>
+        <v>0.1733014918563522</v>
       </c>
       <c r="G83">
-        <v>-0.1341105048125125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.05238383450662223</v>
+      </c>
+      <c r="H83">
+        <v>-0.1005493850567358</v>
+      </c>
+      <c r="I83">
+        <v>0.07616355232136615</v>
+      </c>
+      <c r="J83">
+        <v>-0.04607573743723598</v>
+      </c>
+      <c r="K83">
+        <v>-0.01307792420639978</v>
+      </c>
+      <c r="L83">
+        <v>-0.07791564957197485</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>-0.002658619754507824</v>
+        <v>-0.0001404109569129584</v>
       </c>
       <c r="C84">
-        <v>0.05487808050694866</v>
+        <v>0.04518782072978396</v>
       </c>
       <c r="D84">
-        <v>0.03257930642729032</v>
+        <v>0.06318137705024704</v>
       </c>
       <c r="E84">
-        <v>-0.09347991999285589</v>
+        <v>-0.001720604415893806</v>
       </c>
       <c r="F84">
-        <v>0.09522900539133622</v>
+        <v>-0.09840126137768124</v>
       </c>
       <c r="G84">
-        <v>0.09739401164807472</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>0.03453833778621109</v>
+      </c>
+      <c r="H84">
+        <v>0.07868738267696557</v>
+      </c>
+      <c r="I84">
+        <v>0.123478230023913</v>
+      </c>
+      <c r="J84">
+        <v>0.001478498416890723</v>
+      </c>
+      <c r="K84">
+        <v>-0.04408364112762101</v>
+      </c>
+      <c r="L84">
+        <v>-0.07538884211949519</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.02156587157890007</v>
+        <v>0.02897411630560962</v>
       </c>
       <c r="C85">
-        <v>0.1296343020439876</v>
+        <v>0.1152015687970084</v>
       </c>
       <c r="D85">
-        <v>0.09331775876356163</v>
+        <v>0.08112343927096555</v>
       </c>
       <c r="E85">
-        <v>0.1376286501320935</v>
+        <v>0.03070993455346426</v>
       </c>
       <c r="F85">
-        <v>-0.1123168286936065</v>
+        <v>0.1276934157657164</v>
       </c>
       <c r="G85">
-        <v>0.09002497491765156</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.2052567179435744</v>
+      </c>
+      <c r="H85">
+        <v>-0.04045436970879406</v>
+      </c>
+      <c r="I85">
+        <v>-0.06655048531783384</v>
+      </c>
+      <c r="J85">
+        <v>-0.1131642822092671</v>
+      </c>
+      <c r="K85">
+        <v>-0.1176014910230469</v>
+      </c>
+      <c r="L85">
+        <v>-0.1095007234261455</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.01799184864805365</v>
+        <v>0.01449370545167994</v>
       </c>
       <c r="C86">
-        <v>0.07077581136306138</v>
+        <v>0.08159538564781699</v>
       </c>
       <c r="D86">
-        <v>-0.02998620601350538</v>
+        <v>0.02624841646788179</v>
       </c>
       <c r="E86">
-        <v>-0.03908651718496426</v>
+        <v>-0.02332004695158665</v>
       </c>
       <c r="F86">
-        <v>0.07196751976713864</v>
+        <v>-0.09050072653981933</v>
       </c>
       <c r="G86">
-        <v>-0.02315854712314515</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.04564865609266167</v>
+      </c>
+      <c r="H86">
+        <v>0.01869483398970634</v>
+      </c>
+      <c r="I86">
+        <v>-0.1526452376946351</v>
+      </c>
+      <c r="J86">
+        <v>-0.004159270134963203</v>
+      </c>
+      <c r="K86">
+        <v>0.1829565483890687</v>
+      </c>
+      <c r="L86">
+        <v>-0.08503112897278574</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.03740130549524515</v>
+        <v>0.0241003622774719</v>
       </c>
       <c r="C87">
-        <v>0.1539342927558738</v>
+        <v>0.1168173590626651</v>
       </c>
       <c r="D87">
-        <v>0.02176395280812884</v>
+        <v>0.01742391954636375</v>
       </c>
       <c r="E87">
-        <v>-0.1184398492380717</v>
+        <v>-0.01360249930932992</v>
       </c>
       <c r="F87">
-        <v>0.008924970270900532</v>
+        <v>-0.07012614358013632</v>
       </c>
       <c r="G87">
-        <v>0.03109624469920443</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.00678028693720637</v>
+      </c>
+      <c r="H87">
+        <v>0.04186695969470341</v>
+      </c>
+      <c r="I87">
+        <v>0.09600056990820023</v>
+      </c>
+      <c r="J87">
+        <v>-0.1056158561693378</v>
+      </c>
+      <c r="K87">
+        <v>0.01707795968943991</v>
+      </c>
+      <c r="L87">
+        <v>0.03279713872311502</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.003911061912852266</v>
+        <v>0.03761425920228393</v>
       </c>
       <c r="C88">
-        <v>0.03787923051969725</v>
+        <v>0.06489678719973792</v>
       </c>
       <c r="D88">
-        <v>0.04905006320371563</v>
+        <v>0.04268994268139367</v>
       </c>
       <c r="E88">
-        <v>0.05778745946153941</v>
+        <v>0.01826859579255791</v>
       </c>
       <c r="F88">
-        <v>0.008829570271221145</v>
+        <v>0.01726787019587681</v>
       </c>
       <c r="G88">
-        <v>-0.013473173810482</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.0242667001508436</v>
+      </c>
+      <c r="H88">
+        <v>0.00449602041507449</v>
+      </c>
+      <c r="I88">
+        <v>-0.01673028895773535</v>
+      </c>
+      <c r="J88">
+        <v>0.03120891758078465</v>
+      </c>
+      <c r="K88">
+        <v>-0.07509189606261567</v>
+      </c>
+      <c r="L88">
+        <v>-0.1161074216797812</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.3889380604362971</v>
+        <v>0.3906404336571431</v>
       </c>
       <c r="C89">
-        <v>-0.09232039691278776</v>
+        <v>-0.1111913214355079</v>
       </c>
       <c r="D89">
-        <v>0.09823146988442798</v>
+        <v>-0.03477641103877793</v>
       </c>
       <c r="E89">
-        <v>-0.0941074463719216</v>
+        <v>0.02589843582855479</v>
       </c>
       <c r="F89">
-        <v>-0.005852032595197361</v>
+        <v>-0.07220139472330822</v>
       </c>
       <c r="G89">
-        <v>0.08651909713762307</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.03695555341247821</v>
+      </c>
+      <c r="H89">
+        <v>0.01033843014468257</v>
+      </c>
+      <c r="I89">
+        <v>0.734145669757688</v>
+      </c>
+      <c r="J89">
+        <v>0.1025749581522922</v>
+      </c>
+      <c r="K89">
+        <v>0.06173729648873243</v>
+      </c>
+      <c r="L89">
+        <v>-0.06583437823520311</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.3055753369305701</v>
+        <v>0.3154269877454846</v>
       </c>
       <c r="C90">
-        <v>-0.02825061161680525</v>
+        <v>-0.07054957987183845</v>
       </c>
       <c r="D90">
-        <v>-0.01530390365831006</v>
+        <v>-0.01669514938443693</v>
       </c>
       <c r="E90">
-        <v>-0.0718467205271545</v>
+        <v>-0.02646986835433876</v>
       </c>
       <c r="F90">
-        <v>-0.03815904437637855</v>
+        <v>-0.03509972139572481</v>
       </c>
       <c r="G90">
-        <v>-0.03418155389494607</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01196276429514741</v>
+      </c>
+      <c r="H90">
+        <v>0.02080917191261683</v>
+      </c>
+      <c r="I90">
+        <v>-0.08417547061600585</v>
+      </c>
+      <c r="J90">
+        <v>-0.01549298119469566</v>
+      </c>
+      <c r="K90">
+        <v>0.003677455416313903</v>
+      </c>
+      <c r="L90">
+        <v>0.03429136425014587</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.03184991827372731</v>
+        <v>0.05219616551465076</v>
       </c>
       <c r="C91">
-        <v>0.08969362188607317</v>
+        <v>0.08982618835847068</v>
       </c>
       <c r="D91">
-        <v>0.04926756832000661</v>
+        <v>0.04555255407162272</v>
       </c>
       <c r="E91">
-        <v>0.07332696765646228</v>
+        <v>-0.01462310568978623</v>
       </c>
       <c r="F91">
-        <v>-0.07157377611524306</v>
+        <v>0.06050186088452216</v>
       </c>
       <c r="G91">
-        <v>0.04100835556179397</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.07877564074556899</v>
+      </c>
+      <c r="H91">
+        <v>-0.02820761765821108</v>
+      </c>
+      <c r="I91">
+        <v>0.001587647554204547</v>
+      </c>
+      <c r="J91">
+        <v>0.0113819090848949</v>
+      </c>
+      <c r="K91">
+        <v>-0.04523992051392454</v>
+      </c>
+      <c r="L91">
+        <v>-0.03562627310739313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.3804849500864398</v>
+        <v>0.354965691451512</v>
       </c>
       <c r="C92">
-        <v>-0.08644415287906525</v>
+        <v>-0.1171516297395927</v>
       </c>
       <c r="D92">
-        <v>-0.02036912280373223</v>
+        <v>-0.05330727911627388</v>
       </c>
       <c r="E92">
-        <v>-0.001307820945364623</v>
+        <v>0.02758144113657594</v>
       </c>
       <c r="F92">
-        <v>0.1028669476521889</v>
+        <v>-0.0648069283149566</v>
       </c>
       <c r="G92">
-        <v>0.04060101372411066</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.008259912058519019</v>
+      </c>
+      <c r="H92">
+        <v>0.07425160377274068</v>
+      </c>
+      <c r="I92">
+        <v>-0.1525494560711689</v>
+      </c>
+      <c r="J92">
+        <v>0.00443784111370569</v>
+      </c>
+      <c r="K92">
+        <v>0.01054686317722881</v>
+      </c>
+      <c r="L92">
+        <v>0.04882272945491251</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.3029427535689284</v>
+        <v>0.3122375653544591</v>
       </c>
       <c r="C93">
-        <v>-0.07709644903375316</v>
+        <v>-0.1099192748116968</v>
       </c>
       <c r="D93">
-        <v>0.01605695580286754</v>
+        <v>-0.007096235036656053</v>
       </c>
       <c r="E93">
-        <v>-0.06497826431456651</v>
+        <v>-0.01175344929277833</v>
       </c>
       <c r="F93">
-        <v>0.01066511266287187</v>
+        <v>-0.04001351282868904</v>
       </c>
       <c r="G93">
-        <v>0.02709612224771486</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04120734976912985</v>
+      </c>
+      <c r="H93">
+        <v>0.03658622489492113</v>
+      </c>
+      <c r="I93">
+        <v>-0.1070907058072229</v>
+      </c>
+      <c r="J93">
+        <v>-0.01100762064863235</v>
+      </c>
+      <c r="K93">
+        <v>-0.003355227626409859</v>
+      </c>
+      <c r="L93">
+        <v>-0.04260894432537923</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.05342756552926734</v>
+        <v>0.0780996470623468</v>
       </c>
       <c r="C94">
-        <v>0.2076101787617557</v>
+        <v>0.1694876095237403</v>
       </c>
       <c r="D94">
-        <v>0.1718552912607121</v>
+        <v>0.1064203257286397</v>
       </c>
       <c r="E94">
-        <v>0.2947727329710257</v>
+        <v>0.03942489158634322</v>
       </c>
       <c r="F94">
-        <v>-0.2474078496831623</v>
+        <v>0.1558045702915226</v>
       </c>
       <c r="G94">
-        <v>0.5110229464376173</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.5384078239989089</v>
+      </c>
+      <c r="H94">
+        <v>-0.2261467262244746</v>
+      </c>
+      <c r="I94">
+        <v>0.1337927144914608</v>
+      </c>
+      <c r="J94">
+        <v>0.3161148624593398</v>
+      </c>
+      <c r="K94">
+        <v>-0.04611333269253676</v>
+      </c>
+      <c r="L94">
+        <v>0.5066399817921906</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.03852560711307627</v>
+        <v>0.03780660292291043</v>
       </c>
       <c r="C95">
-        <v>0.1026130932366871</v>
+        <v>0.1301208134531608</v>
       </c>
       <c r="D95">
-        <v>0.04241824514597085</v>
+        <v>0.06170131972509423</v>
       </c>
       <c r="E95">
-        <v>0.05342507616090333</v>
+        <v>0.04985233935313013</v>
       </c>
       <c r="F95">
-        <v>-0.05398312411660648</v>
+        <v>0.06867333939376404</v>
       </c>
       <c r="G95">
-        <v>-0.1415919601734218</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.04496904191772179</v>
+      </c>
+      <c r="H95">
+        <v>0.07184227037962558</v>
+      </c>
+      <c r="I95">
+        <v>0.1597831573243257</v>
+      </c>
+      <c r="J95">
+        <v>-0.01147346169132748</v>
+      </c>
+      <c r="K95">
+        <v>-0.2803878572549994</v>
+      </c>
+      <c r="L95">
+        <v>-0.1676976667897314</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4348,139 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>0.0005449819621469454</v>
+        <v>0.0110914988870449</v>
       </c>
       <c r="C97">
-        <v>-0.0001462606433230329</v>
+        <v>0.01678097893716124</v>
       </c>
       <c r="D97">
-        <v>-0.0004050079673108214</v>
+        <v>-0.008863676710488506</v>
       </c>
       <c r="E97">
-        <v>0.0004045126847459814</v>
+        <v>0.02901471462960959</v>
       </c>
       <c r="F97">
-        <v>0.001633588907686428</v>
+        <v>-0.01487762738581348</v>
       </c>
       <c r="G97">
-        <v>0.001038894376268828</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.02807806066324769</v>
+      </c>
+      <c r="H97">
+        <v>0.03570513582483167</v>
+      </c>
+      <c r="I97">
+        <v>0.01186992849284224</v>
+      </c>
+      <c r="J97">
+        <v>0.1219901498835723</v>
+      </c>
+      <c r="K97">
+        <v>0.06769715516727774</v>
+      </c>
+      <c r="L97">
+        <v>-0.07162338190447506</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.08954474059639676</v>
+        <v>0.1298454767155073</v>
       </c>
       <c r="C98">
-        <v>0.1457263803436757</v>
+        <v>0.1603402668612454</v>
       </c>
       <c r="D98">
-        <v>0.1066362465923097</v>
+        <v>0.08824332609677574</v>
       </c>
       <c r="E98">
-        <v>0.07524995493386573</v>
+        <v>0.04090232260339112</v>
       </c>
       <c r="F98">
-        <v>0.03423780802775919</v>
+        <v>0.2107504234067764</v>
       </c>
       <c r="G98">
-        <v>-0.2799471491722901</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.3349443041149119</v>
+      </c>
+      <c r="H98">
+        <v>-0.3361724263555215</v>
+      </c>
+      <c r="I98">
+        <v>-0.09950491696667313</v>
+      </c>
+      <c r="J98">
+        <v>0.01888634794453913</v>
+      </c>
+      <c r="K98">
+        <v>0.1331780359313985</v>
+      </c>
+      <c r="L98">
+        <v>0.2015004035919961</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.01026769760350162</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.04136385081454017</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.0006942484263148022</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.005308603866385192</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.06410000924192512</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>0.05563784301033442</v>
+      </c>
+      <c r="H99">
+        <v>0.09662879728622865</v>
+      </c>
+      <c r="I99">
+        <v>-0.06569131725115039</v>
+      </c>
+      <c r="J99">
+        <v>0.6923819712664401</v>
+      </c>
+      <c r="K99">
+        <v>0.4424653642194111</v>
+      </c>
+      <c r="L99">
+        <v>-0.3460856994519762</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4500,101 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.004838486407030225</v>
+        <v>0.01212853253995002</v>
       </c>
       <c r="C101">
-        <v>0.0702156504274537</v>
+        <v>0.0784500774025038</v>
       </c>
       <c r="D101">
-        <v>0.04273397995689886</v>
+        <v>0.05321930898442886</v>
       </c>
       <c r="E101">
-        <v>-0.04552790414885011</v>
+        <v>-0.0550678705687298</v>
       </c>
       <c r="F101">
-        <v>0.007482986630243537</v>
+        <v>0.0114996748549547</v>
       </c>
       <c r="G101">
-        <v>-0.0907314680544257</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1151979072572398</v>
+      </c>
+      <c r="H101">
+        <v>0.2937451001342521</v>
+      </c>
+      <c r="I101">
+        <v>0.03249884923235836</v>
+      </c>
+      <c r="J101">
+        <v>0.1391499116427823</v>
+      </c>
+      <c r="K101">
+        <v>-0.1095162582444678</v>
+      </c>
+      <c r="L101">
+        <v>0.2968371832421268</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B102">
-        <v>0.009316072060156961</v>
+        <v>0.003537458580123521</v>
       </c>
       <c r="C102">
-        <v>0.03181643956041345</v>
+        <v>0.01217489610167832</v>
       </c>
       <c r="D102">
-        <v>0.0106990073721071</v>
+        <v>0.001795943475835971</v>
       </c>
       <c r="E102">
-        <v>0.02470656707918176</v>
+        <v>-0.004107604344426151</v>
       </c>
       <c r="F102">
-        <v>-0.02877930140782935</v>
+        <v>0.009076688950095791</v>
       </c>
       <c r="G102">
-        <v>-0.0008589418742472683</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.008587827985224646</v>
+      </c>
+      <c r="H102">
+        <v>0.001941698961864663</v>
+      </c>
+      <c r="I102">
+        <v>0.01799970198506856</v>
+      </c>
+      <c r="J102">
+        <v>0.007806050268062348</v>
+      </c>
+      <c r="K102">
+        <v>0.006413206355620508</v>
+      </c>
+      <c r="L102">
+        <v>0.02574754316181291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4614,25 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4650,21 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
